--- a/verification_MLP.xlsx
+++ b/verification_MLP.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="936">
   <si>
     <t>特徴量</t>
     <rPh sb="0" eb="2">
@@ -3351,10 +3351,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>max acc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>at loss</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3407,6 +3403,38 @@
   </si>
   <si>
     <t>segmentation+mfcc+frame+score_mlp_2020-09-10_final10_100.0%.h5</t>
+  </si>
+  <si>
+    <t>max  Test acc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Loss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Recall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>segmentation+mfcc+frame+score</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROC AUC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PR AUC</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4018,6 +4046,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4453,6 +4482,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6846,7 +6876,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="A1:H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -12847,7 +12879,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12867,9 +12899,11 @@
     <col min="12" max="12" width="12.75" customWidth="1"/>
     <col min="13" max="13" width="13.125" customWidth="1"/>
     <col min="14" max="14" width="12.75" customWidth="1"/>
+    <col min="21" max="21" width="33.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>892</v>
       </c>
@@ -12901,7 +12935,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>893</v>
       </c>
@@ -12933,7 +12967,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>871</v>
       </c>
@@ -12941,7 +12975,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>64</v>
       </c>
@@ -12949,7 +12983,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -12957,7 +12991,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>78</v>
       </c>
@@ -12989,7 +13023,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>82</v>
       </c>
@@ -12997,7 +13031,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>85</v>
       </c>
@@ -13005,7 +13039,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>88</v>
       </c>
@@ -13013,7 +13047,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>912</v>
       </c>
@@ -13021,48 +13055,78 @@
         <v>913</v>
       </c>
       <c r="C11" t="s">
+        <v>928</v>
+      </c>
+      <c r="D11" t="s">
         <v>914</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>915</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>916</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>917</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>918</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>919</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>920</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>921</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>922</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>923</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>924</v>
       </c>
-      <c r="N11" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q11" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>929</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>930</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>931</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="W11" s="16" t="s">
+        <v>932</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y11" s="18" t="s">
+        <v>934</v>
+      </c>
+      <c r="Z11" s="18" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>893</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C12">
         <v>57.236843999999998</v>
@@ -13071,7 +13135,7 @@
         <v>5.8732790000000001</v>
       </c>
       <c r="E12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F12">
         <v>97</v>
@@ -13100,37 +13164,108 @@
       <c r="N12">
         <v>0.41744274411843602</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="Q12" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="R12" s="16">
+        <v>1604</v>
+      </c>
+      <c r="S12" s="16">
+        <v>57.236843999999998</v>
+      </c>
+      <c r="T12" s="16">
+        <v>5.8732790000000001</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>933</v>
+      </c>
+      <c r="V12" s="16">
+        <v>0.44252873563218298</v>
+      </c>
+      <c r="W12" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="X12" s="16">
+        <v>0.54225352112675995</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>0.56246485473289598</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>0.41744274411843602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>871</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+        <v>925</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="R13" s="16">
+        <v>1446</v>
+      </c>
+      <c r="S13" s="16">
+        <v>56.481481000000002</v>
+      </c>
+      <c r="T13" s="16">
+        <v>23.219809000000001</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>933</v>
+      </c>
+      <c r="V13" s="16">
+        <v>0.52272727272727204</v>
+      </c>
+      <c r="W13" s="16">
+        <v>0.90196078431372495</v>
+      </c>
+      <c r="X13" s="16">
+        <v>0.66187050359712196</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>0.59042827657378705</v>
+      </c>
+      <c r="Z13" s="16">
+        <v>0.70788859570719698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+        <v>925</v>
+      </c>
+      <c r="R15" t="s">
+        <v>326</v>
+      </c>
+      <c r="S15">
+        <f>AVERAGE(S12:S13)</f>
+        <v>56.859162499999996</v>
+      </c>
+      <c r="T15">
+        <f>AVERAGE(T12:T13)</f>
+        <v>14.546544000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C16">
         <v>56.481481000000002</v>
@@ -13139,7 +13274,7 @@
         <v>23.219809000000001</v>
       </c>
       <c r="E16" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F16">
         <v>30</v>
@@ -13174,7 +13309,7 @@
         <v>82</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -13182,7 +13317,7 @@
         <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
@@ -13190,7 +13325,7 @@
         <v>88</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
   </sheetData>
